--- a/IMDB/Results Table.xlsx
+++ b/IMDB/Results Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevespence/Desktop/M.S. Business Analytics/4. Spring - 2020/MIS-64061 Advanched Machine Learning/Assignment 1 - Movie Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8D7152-5F3E-934C-B132-586E38B51543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCDF16B-3D46-334E-85A7-9BFB0B3E307D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{B749D424-11AE-1145-9888-C68888474EA7}"/>
+    <workbookView xWindow="640" yWindow="4260" windowWidth="25600" windowHeight="14420" xr2:uid="{B749D424-11AE-1145-9888-C68888474EA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,17 +512,17 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1">
-        <v>0.8931</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>0.89019999999999999</v>
+        <v>0.88849999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -533,10 +533,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -545,13 +545,13 @@
         <v>12</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>0.88890000000000002</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.89</v>
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.87329999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -565,22 +565,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.88819999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.89349999999999996</v>
       </c>
       <c r="I4" s="2">
-        <v>0.8891</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -591,25 +591,25 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.89170000000000005</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.88819999999999999</v>
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.87360000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -620,10 +620,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -635,10 +635,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="1">
-        <v>0.89149999999999996</v>
+        <v>0.89329999999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>0.88819999999999999</v>
+        <v>0.88349999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -652,22 +652,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>0.89349999999999996</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.88800000000000001</v>
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.88019999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -690,13 +690,13 @@
         <v>12</v>
       </c>
       <c r="G8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>0.89049999999999996</v>
+        <v>0.8931</v>
       </c>
       <c r="I8" s="1">
-        <v>0.88739999999999997</v>
+        <v>0.89019999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -710,22 +710,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>0.8911</v>
+        <v>0.89280000000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>0.88580000000000003</v>
+        <v>0.87519999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -736,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>16</v>
@@ -744,17 +744,17 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.8901</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.88570000000000004</v>
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.88739999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -768,22 +768,22 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.8911</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.88419999999999999</v>
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.88380000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -797,22 +797,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>0.89319999999999999</v>
+        <v>0.89259999999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>0.88019999999999998</v>
+        <v>0.88739999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -826,22 +826,22 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
-        <v>0.89080000000000004</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.87790000000000001</v>
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -852,25 +852,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
-        <v>0.89029999999999998</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.87560000000000004</v>
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -881,10 +881,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
@@ -893,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.87519999999999998</v>
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -910,10 +910,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
@@ -922,13 +922,13 @@
         <v>11</v>
       </c>
       <c r="G16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
-        <v>0.88990000000000002</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.87</v>
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.87370000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -942,22 +942,22 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.89149999999999996</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.88719999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.88819999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -968,25 +968,25 @@
         <v>8</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.89039999999999997</v>
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.89159999999999995</v>
       </c>
       <c r="I18" s="1">
-        <v>0.89049999999999996</v>
+        <v>0.88660000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
         <v>16</v>
@@ -1005,17 +1005,17 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19" s="1">
-        <v>0.89270000000000005</v>
+        <v>0.89159999999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>0.88739999999999997</v>
+        <v>0.87760000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1026,25 +1026,25 @@
         <v>8</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
-        <v>0.89129999999999998</v>
+        <v>0.89149999999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>0.88739999999999997</v>
+        <v>0.88819999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1055,25 +1055,25 @@
         <v>8</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G21" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H21" s="1">
-        <v>0.89049999999999996</v>
+        <v>0.89149999999999996</v>
       </c>
       <c r="I21" s="1">
-        <v>0.88560000000000005</v>
+        <v>0.88719999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1084,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
         <v>128</v>
@@ -1092,17 +1092,17 @@
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1">
-        <v>0.88829999999999998</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.88400000000000001</v>
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.88390000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1116,22 +1116,22 @@
         <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>0.89329999999999998</v>
+        <v>0.89129999999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>0.88349999999999995</v>
+        <v>0.88739999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1142,10 +1142,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>9</v>
@@ -1157,10 +1157,10 @@
         <v>2</v>
       </c>
       <c r="H24" s="1">
-        <v>0.89219999999999999</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.88100000000000001</v>
+        <v>0.8911</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.88880000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1171,25 +1171,25 @@
         <v>8</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.89080000000000004</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0.88060000000000005</v>
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.8911</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.88670000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1200,10 +1200,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>9</v>
@@ -1212,13 +1212,13 @@
         <v>15</v>
       </c>
       <c r="G26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" s="1">
-        <v>0.89019999999999999</v>
+        <v>0.8911</v>
       </c>
       <c r="I26" s="1">
-        <v>0.87970000000000004</v>
+        <v>0.88580000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1229,10 +1229,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
@@ -1241,13 +1241,13 @@
         <v>15</v>
       </c>
       <c r="G27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="2">
-        <v>0.88900000000000001</v>
+        <v>0.8911</v>
       </c>
       <c r="I27" s="2">
-        <v>0.87860000000000005</v>
+        <v>0.88419999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1258,25 +1258,25 @@
         <v>8</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G28" s="1">
-        <v>5</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.89070000000000005</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.878</v>
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.88870000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1290,22 +1290,22 @@
         <v>2</v>
       </c>
       <c r="D29" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>12</v>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G29" s="1">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.89339999999999997</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.87360000000000004</v>
+        <v>5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.88060000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1316,25 +1316,25 @@
         <v>8</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G30" s="1">
-        <v>5</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.8891</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.87360000000000004</v>
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.87790000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1345,25 +1345,25 @@
         <v>8</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>12</v>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G31" s="1">
         <v>3</v>
       </c>
       <c r="H31" s="1">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.87329999999999997</v>
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.88</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1377,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>9</v>
@@ -1388,11 +1388,11 @@
       <c r="G32" s="1">
         <v>5</v>
       </c>
-      <c r="H32" s="1">
-        <v>0.88670000000000004</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.81469999999999998</v>
+      <c r="H32" s="2">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.878</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1403,25 +1403,25 @@
         <v>8</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>11</v>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.88849999999999996</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.88900000000000001</v>
+        <v>7</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.88739999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1432,25 +1432,25 @@
         <v>8</v>
       </c>
       <c r="C34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>11</v>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G34" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1">
-        <v>0.8911</v>
+        <v>0.89049999999999996</v>
       </c>
       <c r="I34" s="1">
-        <v>0.88880000000000003</v>
+        <v>0.88560000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1461,25 +1461,25 @@
         <v>8</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G35" s="1">
-        <v>3</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0.89159999999999995</v>
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.89039999999999997</v>
       </c>
       <c r="I35" s="1">
-        <v>0.88660000000000005</v>
+        <v>0.89049999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1490,25 +1490,25 @@
         <v>8</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>12</v>
+      <c r="F36" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G36" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
-        <v>0.88919999999999999</v>
+        <v>0.89029999999999998</v>
       </c>
       <c r="I36" s="1">
-        <v>0.88480000000000003</v>
+        <v>0.87560000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1519,25 +1519,25 @@
         <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>12</v>
+      <c r="F37" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G37" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H37" s="1">
-        <v>0.89149999999999996</v>
+        <v>0.89019999999999999</v>
       </c>
       <c r="I37" s="1">
-        <v>0.88390000000000002</v>
+        <v>0.87970000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1548,25 +1548,25 @@
         <v>8</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>12</v>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G38" s="1">
         <v>5</v>
       </c>
-      <c r="H38" s="1">
-        <v>0.88939999999999997</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.88360000000000005</v>
+      <c r="H38" s="2">
+        <v>0.8901</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.88570000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1609,22 +1609,22 @@
         <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G40" s="1">
-        <v>2</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.88990000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.89</v>
       </c>
       <c r="I40" s="1">
-        <v>0.88039999999999996</v>
+        <v>0.82940000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1635,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1">
         <v>64</v>
@@ -1650,10 +1650,10 @@
         <v>3</v>
       </c>
       <c r="H41" s="1">
-        <v>0.89070000000000005</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0.88</v>
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.88539999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1667,22 +1667,22 @@
         <v>3</v>
       </c>
       <c r="D42" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G42" s="1">
-        <v>7</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0.88229999999999997</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0.879</v>
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.88039999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -1693,25 +1693,25 @@
         <v>8</v>
       </c>
       <c r="C43" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G43" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" s="1">
-        <v>0.88470000000000004</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.87860000000000005</v>
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.87</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -1722,25 +1722,25 @@
         <v>8</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>12</v>
+      <c r="F44" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G44" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H44" s="1">
-        <v>0.88629999999999998</v>
+        <v>0.88959999999999995</v>
       </c>
       <c r="I44" s="1">
-        <v>0.87360000000000004</v>
+        <v>0.88290000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1754,22 +1754,22 @@
         <v>3</v>
       </c>
       <c r="D45" s="1">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>15</v>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G45" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H45" s="1">
-        <v>0.8851</v>
+        <v>0.88939999999999997</v>
       </c>
       <c r="I45" s="1">
-        <v>0.86770000000000003</v>
+        <v>0.88360000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -1783,22 +1783,22 @@
         <v>3</v>
       </c>
       <c r="D46" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>15</v>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G46" s="1">
         <v>5</v>
       </c>
-      <c r="H46" s="2">
-        <v>0.88519999999999999</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.86299999999999999</v>
+      <c r="H46" s="1">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.88480000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -1809,25 +1809,25 @@
         <v>8</v>
       </c>
       <c r="C47" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G47" s="1">
         <v>3</v>
       </c>
-      <c r="H47" s="2">
-        <v>0.89</v>
+      <c r="H47" s="1">
+        <v>0.8891</v>
       </c>
       <c r="I47" s="1">
-        <v>0.82940000000000003</v>
+        <v>0.8841</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -1838,10 +1838,10 @@
         <v>8</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>9</v>
@@ -1850,13 +1850,13 @@
         <v>11</v>
       </c>
       <c r="G48" s="1">
-        <v>2</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.89090000000000003</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0.88870000000000005</v>
+        <v>5</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.8891</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.87360000000000004</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -1867,25 +1867,25 @@
         <v>8</v>
       </c>
       <c r="C49" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G49" s="1">
-        <v>4</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0.88829999999999998</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.88719999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.87860000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -1904,17 +1904,17 @@
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>15</v>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G50" s="1">
-        <v>2</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.88749999999999996</v>
+        <v>5</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.88900000000000001</v>
       </c>
       <c r="I50" s="1">
-        <v>0.88719999999999999</v>
+        <v>0.86970000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -1925,10 +1925,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>9</v>
@@ -1937,13 +1937,13 @@
         <v>12</v>
       </c>
       <c r="G51" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51" s="1">
-        <v>0.88649999999999995</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.88549999999999995</v>
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.89</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -1954,25 +1954,25 @@
         <v>8</v>
       </c>
       <c r="C52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>11</v>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G52" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H52" s="1">
-        <v>0.88990000000000002</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="I52" s="1">
-        <v>0.88539999999999996</v>
+        <v>0.88109999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -1983,7 +1983,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1">
         <v>32</v>
@@ -1991,17 +1991,17 @@
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>12</v>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G53" s="1">
-        <v>6</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.88649999999999995</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.88439999999999996</v>
+        <v>2</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.88900000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2015,7 +2015,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="1">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>9</v>
@@ -2024,13 +2024,13 @@
         <v>15</v>
       </c>
       <c r="G54" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54" s="1">
-        <v>0.88959999999999995</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0.88290000000000002</v>
+        <v>0.88839999999999997</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2044,22 +2044,22 @@
         <v>4</v>
       </c>
       <c r="D55" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>12</v>
+      <c r="F55" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G55" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H55" s="1">
-        <v>0.89229999999999998</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0.88200000000000001</v>
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.88719999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2070,10 +2070,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>9</v>
@@ -2082,13 +2082,13 @@
         <v>11</v>
       </c>
       <c r="G56" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H56" s="1">
-        <v>0.88380000000000003</v>
+        <v>0.88829999999999998</v>
       </c>
       <c r="I56" s="2">
-        <v>0.87990000000000002</v>
+        <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2099,10 +2099,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>9</v>
@@ -2111,13 +2111,13 @@
         <v>11</v>
       </c>
       <c r="G57" s="1">
-        <v>3</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0.8871</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.87729999999999997</v>
+        <v>2</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.8891</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2128,25 +2128,25 @@
         <v>8</v>
       </c>
       <c r="C58" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G58" s="1">
         <v>4</v>
       </c>
-      <c r="H58" s="1">
-        <v>0.88470000000000004</v>
+      <c r="H58" s="2">
+        <v>0.8881</v>
       </c>
       <c r="I58" s="1">
-        <v>0.87450000000000006</v>
+        <v>0.88339999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2157,25 +2157,25 @@
         <v>8</v>
       </c>
       <c r="C59" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" s="1">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G59" s="1">
         <v>4</v>
       </c>
       <c r="H59" s="1">
-        <v>0.88439999999999996</v>
+        <v>0.88759999999999994</v>
       </c>
       <c r="I59" s="1">
-        <v>0.87370000000000003</v>
+        <v>0.87129999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2194,17 +2194,17 @@
       <c r="E60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
+      <c r="F60" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G60" s="1">
-        <v>5</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0.88900000000000001</v>
+        <v>2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.88749999999999996</v>
       </c>
       <c r="I60" s="1">
-        <v>0.86970000000000003</v>
+        <v>0.88719999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -2215,10 +2215,10 @@
         <v>8</v>
       </c>
       <c r="C61" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" s="1">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>9</v>
@@ -2227,13 +2227,13 @@
         <v>12</v>
       </c>
       <c r="G61" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H61" s="1">
-        <v>0.86639999999999995</v>
+        <v>0.88739999999999997</v>
       </c>
       <c r="I61" s="1">
-        <v>0.86429999999999996</v>
+        <v>0.87660000000000005</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2247,22 +2247,22 @@
         <v>4</v>
       </c>
       <c r="D62" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G62" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" s="1">
-        <v>0.88839999999999997</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0.86199999999999999</v>
+        <v>0.8871</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.87729999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2273,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1">
         <v>128</v>
@@ -2285,13 +2285,13 @@
         <v>15</v>
       </c>
       <c r="G63" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H63" s="1">
-        <v>0.8911</v>
+        <v>0.88670000000000004</v>
       </c>
       <c r="I63" s="1">
-        <v>0.88670000000000004</v>
+        <v>0.81469999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2302,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="C64" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" s="1">
         <v>256</v>
@@ -2310,17 +2310,17 @@
       <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>15</v>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G64" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H64" s="1">
-        <v>0.8891</v>
+        <v>0.88649999999999995</v>
       </c>
       <c r="I64" s="1">
-        <v>0.8841</v>
+        <v>0.88549999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2331,7 +2331,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" s="1">
         <v>32</v>
@@ -2339,17 +2339,17 @@
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>11</v>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G65" s="1">
-        <v>4</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0.8881</v>
+        <v>6</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.88649999999999995</v>
       </c>
       <c r="I65" s="1">
-        <v>0.88339999999999996</v>
+        <v>0.88439999999999996</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -2363,22 +2363,22 @@
         <v>5</v>
       </c>
       <c r="D66" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>12</v>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G66" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H66" s="1">
-        <v>0.88890000000000002</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0.88109999999999999</v>
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0.87409999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -2389,7 +2389,7 @@
         <v>8</v>
       </c>
       <c r="C67" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1">
         <v>16</v>
@@ -2397,17 +2397,17 @@
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>15</v>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G67" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H67" s="1">
-        <v>0.89159999999999995</v>
+        <v>0.88629999999999998</v>
       </c>
       <c r="I67" s="1">
-        <v>0.87760000000000005</v>
+        <v>0.87360000000000004</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -2418,25 +2418,25 @@
         <v>8</v>
       </c>
       <c r="C68" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>12</v>
+      <c r="F68" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G68" s="1">
-        <v>9</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0.88739999999999997</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0.87660000000000005</v>
+        <v>5</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -2447,25 +2447,25 @@
         <v>8</v>
       </c>
       <c r="C69" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G69" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H69" s="1">
-        <v>0.88419999999999999</v>
+        <v>0.8851</v>
       </c>
       <c r="I69" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.86770000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -2479,22 +2479,22 @@
         <v>5</v>
       </c>
       <c r="D70" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G70" s="1">
-        <v>2</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0.88639999999999997</v>
-      </c>
-      <c r="I70" s="2">
-        <v>0.87409999999999999</v>
+        <v>4</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.83430000000000004</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -2505,7 +2505,7 @@
         <v>8</v>
       </c>
       <c r="C71" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1">
         <v>256</v>
@@ -2514,16 +2514,16 @@
         <v>9</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G71" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H71" s="1">
-        <v>0.89219999999999999</v>
+        <v>0.88470000000000004</v>
       </c>
       <c r="I71" s="1">
-        <v>0.87370000000000003</v>
+        <v>0.87860000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -2534,25 +2534,25 @@
         <v>8</v>
       </c>
       <c r="C72" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>12</v>
+      <c r="F72" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G72" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H72" s="1">
-        <v>0.86760000000000004</v>
+        <v>0.88470000000000004</v>
       </c>
       <c r="I72" s="1">
-        <v>0.87309999999999999</v>
+        <v>0.87450000000000006</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2563,10 +2563,10 @@
         <v>8</v>
       </c>
       <c r="C73" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>9</v>
@@ -2575,13 +2575,13 @@
         <v>15</v>
       </c>
       <c r="G73" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H73" s="1">
-        <v>0.8821</v>
-      </c>
-      <c r="I73" s="2">
-        <v>0.873</v>
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.87370000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -2595,22 +2595,22 @@
         <v>5</v>
       </c>
       <c r="D74" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>12</v>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G74" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H74" s="1">
-        <v>0.87660000000000005</v>
+        <v>0.88419999999999999</v>
       </c>
       <c r="I74" s="1">
-        <v>0.87139999999999995</v>
+        <v>0.87639999999999996</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -2621,10 +2621,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" s="1">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>9</v>
@@ -2636,10 +2636,10 @@
         <v>4</v>
       </c>
       <c r="H75" s="1">
-        <v>0.88759999999999994</v>
-      </c>
-      <c r="I75" s="1">
-        <v>0.87129999999999996</v>
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0.87990000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -2650,7 +2650,7 @@
         <v>8</v>
       </c>
       <c r="C76" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
         <v>16</v>
@@ -2658,17 +2658,17 @@
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>12</v>
+      <c r="F76" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G76" s="1">
-        <v>5</v>
-      </c>
-      <c r="H76" s="1">
-        <v>0.85570000000000002</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0.86050000000000004</v>
+        <v>7</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0.879</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -2682,7 +2682,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>9</v>
@@ -2691,13 +2691,13 @@
         <v>15</v>
       </c>
       <c r="G77" s="1">
-        <v>4</v>
-      </c>
-      <c r="H77" s="2">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="I77" s="1">
-        <v>0.83430000000000004</v>
+        <v>5</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.8821</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0.873</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -2708,25 +2708,25 @@
         <v>8</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>13</v>
+      <c r="F78" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G78" s="1">
         <v>6</v>
       </c>
       <c r="H78" s="1">
-        <v>0.89359999999999995</v>
+        <v>0.87660000000000005</v>
       </c>
       <c r="I78" s="1">
-        <v>0.88849999999999996</v>
+        <v>0.87139999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -2737,25 +2737,25 @@
         <v>8</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>13</v>
+      <c r="F79" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G79" s="1">
         <v>5</v>
       </c>
       <c r="H79" s="1">
-        <v>0.89249999999999996</v>
-      </c>
-      <c r="I79" s="2">
-        <v>0.89100000000000001</v>
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.87309999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,25 +2766,25 @@
         <v>8</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D80" s="1">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>13</v>
+      <c r="F80" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G80" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H80" s="1">
-        <v>0.89270000000000005</v>
+        <v>0.86639999999999995</v>
       </c>
       <c r="I80" s="1">
-        <v>0.88380000000000003</v>
+        <v>0.86429999999999996</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -2795,31 +2795,31 @@
         <v>8</v>
       </c>
       <c r="C81" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81" s="1">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>13</v>
+      <c r="F81" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G81" s="1">
         <v>5</v>
       </c>
       <c r="H81" s="1">
-        <v>0.89259999999999995</v>
+        <v>0.85570000000000002</v>
       </c>
       <c r="I81" s="1">
-        <v>0.88739999999999997</v>
+        <v>0.86050000000000004</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I81" xr:uid="{9EEB83DF-F7CC-A046-9383-0B8E66779307}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I81">
-      <sortCondition ref="C1:C81"/>
+      <sortCondition descending="1" ref="H1:H81"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
